--- a/data/2017级1班.xlsx
+++ b/data/2017级1班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>学号</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>女</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>小刘</t>
   </si>
 </sst>
 </file>
@@ -57,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +78,43 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -108,22 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,70 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +188,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +420,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,17 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,15 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,15 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,19 +540,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,112 +561,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1071,6 +1077,17 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/2017级1班.xlsx
+++ b/data/2017级1班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="3075"/>
+    <workbookView windowWidth="21255" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>学号</t>
   </si>
@@ -55,6 +55,174 @@
   </si>
   <si>
     <t>小刘</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>啊是</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>爱的</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>二点</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>七五</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>涛哥</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>为额</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>期望</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>就是</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>哦怕</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>官方</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>耳朵</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>阿三</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>这是</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>按时</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>阿萨</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>咋是</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>拉破</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>批量</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>期间</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>奇偶</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>自身的</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>最新的</t>
   </si>
 </sst>
 </file>
@@ -62,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +246,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,75 +342,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,23 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -211,14 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -229,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,22 +591,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +639,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +680,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,13 +1193,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1089,6 +1257,314 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/2017级1班.xlsx
+++ b/data/2017级1班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7845"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>学号</t>
   </si>
@@ -30,7 +30,7 @@
     <t>004</t>
   </si>
   <si>
-    <t>小明</t>
+    <t>刀白凤</t>
   </si>
   <si>
     <t>男</t>
@@ -39,13 +39,13 @@
     <t>005</t>
   </si>
   <si>
-    <t>小龙</t>
+    <t>丁春秋</t>
   </si>
   <si>
     <t>006</t>
   </si>
   <si>
-    <t>小周</t>
+    <t>马夫人</t>
   </si>
   <si>
     <t>女</t>
@@ -54,175 +54,997 @@
     <t>007</t>
   </si>
   <si>
-    <t>小刘</t>
+    <t>马五德</t>
   </si>
   <si>
     <t>008</t>
   </si>
   <si>
-    <t>啊是</t>
+    <t>小翠</t>
   </si>
   <si>
     <t>009</t>
   </si>
   <si>
-    <t>爱的</t>
+    <t>于光豪</t>
   </si>
   <si>
     <t>010</t>
   </si>
   <si>
-    <t>二点</t>
+    <t>巴天石</t>
   </si>
   <si>
     <t>011</t>
   </si>
   <si>
-    <t>七五</t>
+    <t>不平道人</t>
   </si>
   <si>
     <t>012</t>
   </si>
   <si>
-    <t>涛哥</t>
+    <t>邓百川</t>
   </si>
   <si>
     <t>013</t>
   </si>
   <si>
-    <t>太阳</t>
+    <t>风波恶</t>
   </si>
   <si>
     <t>014</t>
   </si>
   <si>
-    <t>为额</t>
+    <t>甘宝宝</t>
   </si>
   <si>
     <t>015</t>
   </si>
   <si>
-    <t>期望</t>
+    <t>公冶乾</t>
   </si>
   <si>
     <t>016</t>
   </si>
   <si>
-    <t>就是</t>
+    <t>木婉清</t>
   </si>
   <si>
     <t>017</t>
   </si>
   <si>
-    <t>哦怕</t>
+    <t>少林老僧</t>
   </si>
   <si>
     <t>018</t>
   </si>
   <si>
-    <t>官方</t>
+    <t>太皇太后</t>
   </si>
   <si>
     <t>019</t>
   </si>
   <si>
-    <t>耳朵</t>
+    <t>天狼子</t>
   </si>
   <si>
     <t>020</t>
   </si>
   <si>
-    <t>阿三</t>
+    <t>天山童姥</t>
   </si>
   <si>
     <t>021</t>
   </si>
   <si>
-    <t>电信</t>
+    <t>王语嫣</t>
   </si>
   <si>
     <t>022</t>
   </si>
   <si>
-    <t>学生</t>
+    <t>乌老大</t>
   </si>
   <si>
     <t>023</t>
   </si>
   <si>
-    <t>这是</t>
+    <t>无崖子</t>
   </si>
   <si>
     <t>024</t>
   </si>
   <si>
-    <t>按时</t>
+    <t>云岛主</t>
   </si>
   <si>
     <t>025</t>
   </si>
   <si>
-    <t>阿萨</t>
+    <t>云中鹤</t>
   </si>
   <si>
     <t>026</t>
   </si>
   <si>
-    <t>参考</t>
+    <t>止清</t>
   </si>
   <si>
     <t>027</t>
   </si>
   <si>
-    <t>健康</t>
+    <t>白世镜</t>
   </si>
   <si>
     <t>028</t>
   </si>
   <si>
-    <t>科技</t>
+    <t>包不同</t>
   </si>
   <si>
     <t>029</t>
   </si>
   <si>
-    <t>咋是</t>
+    <t>本参</t>
   </si>
   <si>
     <t>030</t>
   </si>
   <si>
-    <t>拉破</t>
+    <t>本观</t>
   </si>
   <si>
     <t>031</t>
   </si>
   <si>
-    <t>批量</t>
+    <t>本相</t>
   </si>
   <si>
     <t>032</t>
   </si>
   <si>
-    <t>期间</t>
+    <t>本因</t>
   </si>
   <si>
     <t>033</t>
   </si>
   <si>
-    <t>奇偶</t>
+    <t>出尘子</t>
   </si>
   <si>
     <t>034</t>
   </si>
   <si>
-    <t>自身的</t>
+    <t>冯阿三</t>
   </si>
   <si>
     <t>035</t>
   </si>
   <si>
-    <t>最新的</t>
+    <t>兰剑</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>古笃诚</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>过彦之</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>平婆婆</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>石清露</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>石嫂</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>司空玄</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>司马林</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>玄慈</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>玄寂</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>玄苦</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>玄难</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>玄生</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>玄痛</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>叶二娘</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>竹剑</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>左子穆</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>华赫艮</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>乔峰</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>李春来</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>李傀儡</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>李秋水</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>刘竹庄</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>朴者和尚</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>祁六三</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>全冠清</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>阮星竹</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>西夏宫女</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>许卓诚</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>朱丹臣</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>努儿海</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>阿碧</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>阿洪</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>阿胜</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>阿朱</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>阿紫</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>波罗星</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>陈孤雁</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>鸠摩智</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>来福儿</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>孟师叔</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>宋长老</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>苏星河</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>苏辙</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>完颜阿古打</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>耶律洪基</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>耶律莫哥</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>耶律涅鲁古</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>耶律重元</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>吴长风</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>吴光胜</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>吴领军</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>辛双清</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>严妈妈</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>余婆婆</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>岳老三</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>张全祥</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>单伯山</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>单季山</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>单叔山</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>单小山</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>单正</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>段延庆</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>段誉</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>段正淳</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>段正明</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>范禹</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>范百龄</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>范骅</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>苟读</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>和里布</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>何望海</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>易大彪</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>郁光标</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>卓不凡</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>宗赞王子</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>哈大霸</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>姜师叔</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>枯荣长老</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>梦姑</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>姚伯当</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>神山上人</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>神音</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>狮鼻子</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>室里</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>项长老</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>幽草</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>赵钱孙</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>赵洵</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>哲罗星</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>钟灵</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>钟万仇</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>高升泰</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>龚光杰</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>贾老者</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>康广陵</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>秦红棉</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>虚竹</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>容子矩</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>桑土公</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>唐光雄</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>奚长老</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>徐长老</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>诸保昆</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>崔百泉</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>崔绿华</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>符敏仪</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>黄眉和尚</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>菊剑</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>聋哑婆婆</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>梅剑</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>萧远山</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>游骥</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>游驹</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>游坦之</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>程青霜</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>傅思归</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>葛光佩</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>缘根</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>智光大师</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>鲍千灵</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>褚万里</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>瑞婆婆</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>端木元</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>黎夫人</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>薛慕华</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>慕容博</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>慕容复</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>谭公</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>谭婆</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>谭青</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>摘星子</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>慧方</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>慧观</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>慧净</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>慧真</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>穆贵妃</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>赫连铁树</t>
   </si>
 </sst>
 </file>
@@ -230,10 +1052,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -253,7 +1075,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +1083,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +1106,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,15 +1143,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +1171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +1194,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +1231,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +1333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,91 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,19 +1399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +1410,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,21 +1435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +1459,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +1496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,10 +1518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,133 +1530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,10 +2015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1564,6 +2386,1513 @@
         <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
     </row>
